--- a/LubanTools/DesignerConfigs/Datas/Z_章节表/chapter_config.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Z_章节表/chapter_config.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12315"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="章节表" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -114,7 +114,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,25 +156,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -319,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,12 +502,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,137 +647,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,9 +799,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,10 +808,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1190,7 +1165,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1246,7 +1221,7 @@
       <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1269,12 +1244,12 @@
       <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1292,73 +1267,73 @@
       <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9">
         <v>18001010</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="D5" s="9" t="str">
         <f>"chapter_"&amp;B5</f>
         <v>chapter_18001010</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <v>19010100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9">
         <v>18001020</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="9" t="str">
         <f t="shared" ref="D6:D7" si="0">"chapter_"&amp;B6</f>
         <v>chapter_18001020</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9">
         <v>18001030</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>chapter_18001030</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
